--- a/biology/Zoologie/Hachikō/Hachikō.xlsx
+++ b/biology/Zoologie/Hachikō/Hachikō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hachik%C5%8D</t>
+          <t>Hachikō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hachikō (ハチ公?), né le 10 novembre 1923 et mort le 8 mars 1935, est un chien de race Akita inu. Il est célèbre au Japon pour avoir attendu, quotidiennement et pendant près de dix ans, son maître à la gare de Shibuya[a] après la mort de ce dernier.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hachik%C5%8D</t>
+          <t>Hachikō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1924, le Japonais Hidesaburō Ueno (en) (上野 英三郎, Ueno Hidesaburō?), professeur au département de l'agriculture de l'université impériale de Tōkyō (l'actuelle université de Tokyo), reçoit un chiot mâle né quelque temps auparavant dans une ferme d'Ōdate dans la préfecture d'Akita et lui donne le nom de « Hachikō » (littéralement, « huitième prince » en japonais ; Hachi signifie « 8 » car il était le 8e chiot de la portée et kō, attaché au nom, étant un terme affectueux[1]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1924, le Japonais Hidesaburō Ueno (en) (上野 英三郎, Ueno Hidesaburō?), professeur au département de l'agriculture de l'université impériale de Tōkyō (l'actuelle université de Tokyo), reçoit un chiot mâle né quelque temps auparavant dans une ferme d'Ōdate dans la préfecture d'Akita et lui donne le nom de « Hachikō » (littéralement, « huitième prince » en japonais ; Hachi signifie « 8 » car il était le 8e chiot de la portée et kō, attaché au nom, étant un terme affectueux).
 Chaque matin, Hidesaburō Ueno se rend à la gare de Shibuya pour prendre le train de banlieue qui le mène à son travail et Hachikō l'accompagne immanquablement, tandis que chaque soir, le chien se rend à la gare seul et attend le retour de son maître.
-Le 21 mai 1925, Hidesaburō Ueno meurt à l'âge de 53 ans lors d'une conférence à l'université, des suites d'une hémorragie intra-cérébrale. Malgré cela, Hachikō continue de se rendre tous les jours à la gare de Shibuya pour attendre son retour[2].
-La fidélité d’Hachiko fut bientôt connue dans tout le Japon grâce à un article écrit par un ancien élève du professeur Hidesaburō Ueno, paru le 4 octobre 1932 dans Asahi Shinbun, l'un des deux grands quotidiens nippons et intitulé : « L’histoire émouvante d’un vieux chien : sept ans qu’il attend son maître décédé[1] ». On a tenté de l'adopter, mais il fuguait pour revenir dans l'ancienne maison de Hidesaburō Ueno, ou à la gare[3]. Beaucoup d'habitués venaient lui apporter de la nourriture lors de son attente à la gare.
+Le 21 mai 1925, Hidesaburō Ueno meurt à l'âge de 53 ans lors d'une conférence à l'université, des suites d'une hémorragie intra-cérébrale. Malgré cela, Hachikō continue de se rendre tous les jours à la gare de Shibuya pour attendre son retour.
+La fidélité d’Hachiko fut bientôt connue dans tout le Japon grâce à un article écrit par un ancien élève du professeur Hidesaburō Ueno, paru le 4 octobre 1932 dans Asahi Shinbun, l'un des deux grands quotidiens nippons et intitulé : « L’histoire émouvante d’un vieux chien : sept ans qu’il attend son maître décédé ». On a tenté de l'adopter, mais il fuguait pour revenir dans l'ancienne maison de Hidesaburō Ueno, ou à la gare. Beaucoup d'habitués venaient lui apporter de la nourriture lors de son attente à la gare.
 Pour ses qualités, Hachikō reçut le surnom de Chūken (« chien fidèle »). Il fut fréquemment présenté par les parents et les enseignants comme un exemple de loyauté.
 Le 8 mars 1935, Hachikō meurt dans une ruelle proche du pont Inari sur la rivière de Shibuya, des suites d'une filariose ou d'un cancer des poumons et du cœur. Il est empaillé et conservé au Musée national de la nature et des sciences de Tokyo, tandis que le reste de sa dépouille est enterré au cimetière d'Aoyama, à côté de la tombe de son maître.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hachik%C5%8D</t>
+          <t>Hachikō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,26 +565,180 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Statues
-En avril 1934, une première statue en bronze est érigée en l'honneur de Hachikō devant la gare de Shibuya[4]. Hachikō lui-même assiste à l'inauguration.
-La statue est fondue en pleine pénurie de métal au moment de la Seconde Guerre mondiale[4]. Une nouvelle statue est inaugurée en août 1948 devant une sortie de la gare de Shibuya, aujourd'hui connue de tous sous le nom de « sortie Hachikō » (ハチ公口, Hachikō-guchi)[4].
-En mai 1989, à la suite de travaux de rénovation et d'agrandissement de la gare, la statue, qui faisait auparavant face au nord, est tournée vers l'est de façon à coïncider avec la direction de la sortie de la gare. Une cérémonie en hommage à Hachikō y est organisée tous les ans au mois d’avril[1].
-En 2004, une statue de bronze est également érigée à la gare d'Ōdate dans la préfecture d'Akita, ville natale de Hachikō. Dans cette même gare se trouve le « Sanctuaire Hachikō de la Japan Railways » (JRハチ公神社, JR Hachikō jinja?). En 2015, une statue lui est érigée ainsi qu'à son maître à l'université d'agriculture et de technologie de Tokyo, statue réalisée par Tsutomu Ueda[4].
+          <t>Statues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 1934, une première statue en bronze est érigée en l'honneur de Hachikō devant la gare de Shibuya. Hachikō lui-même assiste à l'inauguration.
+La statue est fondue en pleine pénurie de métal au moment de la Seconde Guerre mondiale. Une nouvelle statue est inaugurée en août 1948 devant une sortie de la gare de Shibuya, aujourd'hui connue de tous sous le nom de « sortie Hachikō » (ハチ公口, Hachikō-guchi).
+En mai 1989, à la suite de travaux de rénovation et d'agrandissement de la gare, la statue, qui faisait auparavant face au nord, est tournée vers l'est de façon à coïncider avec la direction de la sortie de la gare. Une cérémonie en hommage à Hachikō y est organisée tous les ans au mois d’avril.
+En 2004, une statue de bronze est également érigée à la gare d'Ōdate dans la préfecture d'Akita, ville natale de Hachikō. Dans cette même gare se trouve le « Sanctuaire Hachikō de la Japan Railways » (JRハチ公神社, JR Hachikō jinja?). En 2015, une statue lui est érigée ainsi qu'à son maître à l'université d'agriculture et de technologie de Tokyo, statue réalisée par Tsutomu Ueda.
 			Statue de Hachikō lors de la cérémonie de la première année de sa mort (le 8 mars 1936).
 			La gare de Shibuya (2018). La statue d'Hachikō est visible en bas à gauche.
 			Célèbre statue d'Hachiko.
 			File d'attente pour se faire photographier avec Hachiko.
-Minibus de Shibuya
-En 2003, le quartier de Shibuya crée de nouveaux parcours de minibus (des « bus de la communauté »), surnommés les « Shibuya community bus Hachiko (ja) ». Il y a depuis quatre parcours différents.[réf. souhaitée]
-Dans la culture populaire
-Littérature
-Dans le roman Hatchiko, chien de Tokyo (2003) de Claude Helft, illustré par Chen Jiang Hong[5].
-Dans Hachikō au pays de la nuit (2017) de Linné Lharsson, un roman fantastique s’inspirant de l’histoire d’Hachikō et de l’aventure qui s’ensuit dans le monde des morts, relevant de la mythologie japonaise[6].
-Cinéma
-Dans le film Hachiko monogatari (1987) de Seijirō Kōyama (non diffusé en France).
-Dans le film Hatchi (2008) de Lasse Hallström, remake de Hachiko Monogatari, dont l'action se situe aux États-Unis.
-Bande dessinée et manga
-Dans Nana, Hachikō est le surnom d'une des deux colocataires, en référence à son comportement de chien fidèle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Minibus de Shibuya</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, le quartier de Shibuya crée de nouveaux parcours de minibus (des « bus de la communauté »), surnommés les « Shibuya community bus Hachiko (ja) ». Il y a depuis quatre parcours différents.[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le roman Hatchiko, chien de Tokyo (2003) de Claude Helft, illustré par Chen Jiang Hong.
+Dans Hachikō au pays de la nuit (2017) de Linné Lharsson, un roman fantastique s’inspirant de l’histoire d’Hachikō et de l’aventure qui s’ensuit dans le monde des morts, relevant de la mythologie japonaise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans le film Hachiko monogatari (1987) de Seijirō Kōyama (non diffusé en France).
+Dans le film Hatchi (2008) de Lasse Hallström, remake de Hachiko Monogatari, dont l'action se situe aux États-Unis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bande dessinée et manga</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans Nana, Hachikō est le surnom d'une des deux colocataires, en référence à son comportement de chien fidèle.
 Dans le deuxième tome de Kaguya-sama : Love is War, Kaguya et Miyuki se donnent rendez-vous devant la statue d’Hachikō.
 Dans Gals!, la statue de Hachikō est un décor récurrent.
 Dans Le Collège fou, fou, fou, Rei possède un chien de la même race qu'Hachikō ; cependant, c'est le contraire au niveau du caractère car c'est un chien lâche et infidèle.
@@ -579,14 +747,90 @@
 Dans One Piece, le chien nommé « Chouchou » est inspiré de Hachikō. Il continue de veiller sur la boutique de son maître après son décès.
 Dans Darwin's Game, le héros invente une histoire où la clé d'un coffre est cachée sur la statue de Hachikō à Shibuya.
 Dans Great Teacher Onizuka: Shonan 14 Days (tome 1), le héros Onizuka se cache derrière la statue de Hachikō puis, en se relevant, parle directement à celle-ci.
-Dans son livre Kafka - Les Héritiers, Xavier Amet imagine que, « comme une version high-tech d'Hachiko », un ordinateur attend sa propriétaire décédée.
-Dessins animés
-Dans la série Ore no Imōto ga Konna ni Kawaii Wake ga Nai (saison 2, épisode 5), Kirino Kosaka fait référence à Hachikō pour décrire le comportement de Kyosuke Kosaka.
+Dans son livre Kafka - Les Héritiers, Xavier Amet imagine que, « comme une version high-tech d'Hachiko », un ordinateur attend sa propriétaire décédée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dessins animés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans la série Ore no Imōto ga Konna ni Kawaii Wake ga Nai (saison 2, épisode 5), Kirino Kosaka fait référence à Hachikō pour décrire le comportement de Kyosuke Kosaka.
 Dans la série Toradora! (épisode 17), Taiga fait référence à Hachikō pour décrire le comportement de Ryuuji par rapport à Minorin.
 Dans la série Futurama (saison 4, épisode 7 : « Ceux qui m'aiment prendront le chien »), le héros Fry et son chien (du passé) connaissent la même histoire. La scène finale est lorsque le chien s'affaisse devant une pizzeria, avec la bande sonore des Parapluies de Cherbourg.
-Dans la série Scooby-Doo (épisode « Scooby-Doo et le sabre du samouraï »), les héros se retrouvent devant la statue de Hachikō érigée en son honneur.
-Jeux vidéo
-Dans The World Ends with You qui se déroule à Shibuya, Hachikō est l'un des boss du jeu.</t>
+Dans la série Scooby-Doo (épisode « Scooby-Doo et le sabre du samouraï »), les héros se retrouvent devant la statue de Hachikō érigée en son honneur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hachikō</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachik%C5%8D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans The World Ends with You qui se déroule à Shibuya, Hachikō est l'un des boss du jeu.</t>
         </is>
       </c>
     </row>
